--- a/trial_Scraped.xlsx
+++ b/trial_Scraped.xlsx
@@ -744,7 +744,11 @@
           <t>https://c-hub.pt</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>manufacturing and processing, energy, health care, smart city, public administration, education, environment, transport &amp; mobility, automotive, agricultural biotechnology and food biotechnology</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>Technological innovation - 5, Innovation management - 5, Public sector innovation - 5, Sme Business Development - 5, Technology transfer - 4</t>
